--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,93 +58,105 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>shit</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -157,6 +169,9 @@
     <t>strong</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
@@ -169,13 +184,13 @@
     <t>thank</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
@@ -184,85 +199,82 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>important</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -628,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -739,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -781,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,16 +822,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,16 +872,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>0.9230769230769231</v>
@@ -960,7 +972,7 @@
         <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>0.9166666666666666</v>
@@ -989,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.9164490861618799</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L9">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M9">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
@@ -1089,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.775</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.9014084507042254</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,16 +1172,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,16 +1222,16 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.890625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7073643410852714</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C15">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.8867924528301887</v>
+        <v>0.890625</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6949152542372882</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1357,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.8837209302325582</v>
+        <v>0.88125</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1381,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6931216931216931</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C17">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D17">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1407,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.88125</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L17">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1431,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6129032258064516</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1481,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6040268456375839</v>
+        <v>0.6724806201550387</v>
       </c>
       <c r="C19">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c r="D19">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1507,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>169</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K19">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1531,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5972222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.8448275862068966</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1581,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1589,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5897435897435898</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1607,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.8095238095238095</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1631,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1639,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5686274509803921</v>
+        <v>0.59375</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1657,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1681,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1689,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5675675675675675</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1707,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1739,13 +1751,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5641025641025641</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1757,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1781,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5277777777777778</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1807,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.775</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1831,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1839,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5178571428571429</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1857,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K26">
         <v>0.7692307692307693</v>
@@ -1889,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4909090909090909</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1907,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.76</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1931,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,13 +1951,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.48</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1957,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.7588235294117647</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="L28">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="M28">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1978,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1989,13 +2001,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4727272727272727</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2007,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2031,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2039,13 +2051,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3174603174603174</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2057,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2089,13 +2101,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2777777777777778</v>
+        <v>0.3531746031746032</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2107,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.7428571428571429</v>
+        <v>0.74</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2131,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2139,37 +2151,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1420911528150134</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>53</v>
       </c>
-      <c r="D32">
-        <v>53</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>320</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.7254237288135593</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2181,359 +2193,455 @@
         <v>0</v>
       </c>
       <c r="Q32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.2064343163538874</v>
+      </c>
+      <c r="C33">
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <v>77</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>296</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L33">
+        <v>66</v>
+      </c>
+      <c r="M33">
+        <v>66</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="C34">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>281</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34">
+        <v>0.698744769874477</v>
+      </c>
+      <c r="L34">
+        <v>167</v>
+      </c>
+      <c r="M34">
+        <v>167</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.00643915003219575</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>0.05</v>
+      </c>
+      <c r="F35">
+        <v>0.95</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>3086</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.004212637913741223</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>0.34</v>
+      </c>
+      <c r="F36">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>4964</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36">
+        <v>0.6629213483146067</v>
+      </c>
+      <c r="L36">
+        <v>59</v>
+      </c>
+      <c r="M36">
+        <v>59</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="L37">
+        <v>43</v>
+      </c>
+      <c r="M37">
+        <v>43</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K38">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L38">
+        <v>45</v>
+      </c>
+      <c r="M38">
+        <v>45</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40">
+        <v>0.6</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L33">
-        <v>20</v>
-      </c>
-      <c r="M33">
-        <v>20</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.7112970711297071</v>
-      </c>
-      <c r="L34">
-        <v>170</v>
-      </c>
-      <c r="M34">
-        <v>170</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35">
-        <v>0.7078651685393258</v>
-      </c>
-      <c r="L35">
-        <v>63</v>
-      </c>
-      <c r="M35">
-        <v>63</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L36">
-        <v>19</v>
-      </c>
-      <c r="M36">
-        <v>19</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37">
-        <v>0.676923076923077</v>
-      </c>
-      <c r="L37">
-        <v>44</v>
-      </c>
-      <c r="M37">
-        <v>44</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="K41">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>25</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="L43">
+        <v>32</v>
+      </c>
+      <c r="M43">
+        <v>32</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L44">
+        <v>30</v>
+      </c>
+      <c r="M44">
+        <v>30</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="L45">
+        <v>23</v>
+      </c>
+      <c r="M45">
+        <v>23</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K46">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="L46">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38">
-        <v>0.6702127659574468</v>
-      </c>
-      <c r="L38">
-        <v>63</v>
-      </c>
-      <c r="M38">
-        <v>63</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L39">
-        <v>34</v>
-      </c>
-      <c r="M39">
-        <v>34</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L40">
-        <v>46</v>
-      </c>
-      <c r="M40">
-        <v>46</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41">
-        <v>0.6129032258064516</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L42">
-        <v>24</v>
-      </c>
-      <c r="M42">
-        <v>24</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L43">
-        <v>25</v>
-      </c>
-      <c r="M43">
-        <v>25</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44">
-        <v>0.4657534246575342</v>
-      </c>
-      <c r="L44">
-        <v>34</v>
-      </c>
-      <c r="M44">
-        <v>34</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45">
-        <v>0.4102564102564102</v>
-      </c>
-      <c r="L45">
-        <v>32</v>
-      </c>
-      <c r="M45">
-        <v>32</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K46">
-        <v>0.375</v>
-      </c>
-      <c r="L46">
-        <v>24</v>
-      </c>
       <c r="M46">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2545,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
